--- a/Postman/Nomina.xlsx
+++ b/Postman/Nomina.xlsx
@@ -139,9 +139,6 @@
 </t>
   </si>
   <si>
-    <t>levelNameIndexByProperties</t>
-  </si>
-  <si>
     <t>novelties</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>admin@wizardpp.com</t>
+  </si>
+  <si>
+    <t>pathNameIndexByProperties</t>
   </si>
 </sst>
 </file>
@@ -573,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,7 +592,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>23</v>
@@ -625,10 +625,10 @@
         <v>29</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>30</v>
@@ -651,13 +651,13 @@
     </row>
     <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>1111</v>
@@ -690,7 +690,7 @@
         <v>33</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P2">
         <v>200</v>
@@ -705,13 +705,13 @@
     </row>
     <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3">
         <v>1111</v>
@@ -744,7 +744,7 @@
         <v>35</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P3">
         <v>200</v>
@@ -759,13 +759,13 @@
     </row>
     <row r="4" spans="1:19" ht="29.4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>1111</v>
@@ -789,19 +789,19 @@
         <v>200</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L4" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P4">
         <v>200</v>
@@ -816,13 +816,13 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>1111</v>
@@ -849,13 +849,13 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>1111</v>
@@ -885,13 +885,13 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>1111</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
@@ -945,6 +945,9 @@
         <f t="shared" si="0"/>
         <v>Unauthorized</v>
       </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L13" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
